--- a/techscape-ecommerce/variable_selection.xlsx
+++ b/techscape-ecommerce/variable_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\1_semestre_DS\Machine Learning\kaggle_ml_cloned\techscape-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF3A47-A8AB-41D8-87E8-0FA29B980AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684AD0D-F27A-488A-94BA-BFA68582A0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8FD2E862-170C-4089-AC14-7F38B0A467A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>chi-squared</t>
   </si>
@@ -295,6 +295,27 @@
   </si>
   <si>
     <t>set3</t>
+  </si>
+  <si>
+    <t>Binary_ variables</t>
+  </si>
+  <si>
+    <t>Variance Threshold</t>
+  </si>
+  <si>
+    <t>Chi-Squared</t>
+  </si>
+  <si>
+    <t>Metric Features</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>DT</t>
   </si>
 </sst>
 </file>
@@ -689,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECF448-0E5B-4F38-8A00-76D00F3692AD}">
-  <dimension ref="A5:H85"/>
+  <dimension ref="A5:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81:H82"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,10 +723,13 @@
     <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -721,110 +745,224 @@
       <c r="F5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +975,23 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,8 +1004,25 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +1035,26 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,8 +1067,26 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -893,8 +1099,26 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -907,8 +1131,23 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -921,8 +1160,23 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -935,8 +1189,23 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -949,8 +1218,23 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -963,8 +1247,27 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -977,8 +1280,25 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -991,8 +1311,23 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1005,8 +1340,23 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1019,8 +1369,26 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1033,8 +1401,27 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1047,8 +1434,14 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1061,8 +1454,14 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1075,8 +1474,17 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1090,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1104,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>

--- a/techscape-ecommerce/variable_selection.xlsx
+++ b/techscape-ecommerce/variable_selection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\1_semestre_DS\Machine Learning\kaggle_ml_cloned\techscape-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684AD0D-F27A-488A-94BA-BFA68582A0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09BFC26-59E7-4234-845B-19784F728BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8FD2E862-170C-4089-AC14-7F38B0A467A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
   <si>
     <t>chi-squared</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'x1_United Kingdom'</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECF448-0E5B-4F38-8A00-76D00F3692AD}">
-  <dimension ref="A5:Q85"/>
+  <dimension ref="A7:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,177 +732,72 @@
     <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>89</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J7" t="s">
         <v>88</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N7" t="s">
         <v>69</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P7" t="s">
         <v>92</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
+      <c r="H8" t="s">
+        <v>18</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -908,27 +806,32 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -937,34 +840,30 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -975,25 +874,31 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1005,26 +910,27 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1035,17 +941,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1056,7 +962,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1067,28 +973,32 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1099,28 +1009,28 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1132,24 +1042,29 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1160,14 +1075,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1178,7 +1096,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1190,16 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1207,7 +1128,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1219,27 +1140,33 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1248,28 +1175,27 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
-        <v>1</v>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1281,26 +1207,27 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5">
-        <v>1</v>
-      </c>
-      <c r="P22" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1309,16 +1236,19 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1329,7 +1259,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1341,13 +1271,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1358,7 +1291,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1370,27 +1303,31 @@
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1401,29 +1338,30 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1</v>
-      </c>
+      <c r="H26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1434,16 +1372,19 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27">
+      <c r="L27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1454,16 +1395,19 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
+      <c r="L28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1474,33 +1418,50 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="H29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1509,12 +1470,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1526,51 +1488,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1582,37 +1544,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -1626,10 +1588,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1640,13 +1602,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1654,38 +1616,38 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1696,10 +1658,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1710,7 +1672,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1724,13 +1686,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1738,13 +1700,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1752,13 +1714,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1766,13 +1728,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1780,13 +1742,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1794,107 +1756,113 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55">
+        <v>46</v>
+      </c>
+      <c r="B55">
         <v>0</v>
       </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56">
+        <v>47</v>
+      </c>
+      <c r="B56">
         <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1902,21 +1870,24 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="7">
-        <v>1</v>
-      </c>
-      <c r="D61" s="7">
-        <v>1</v>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1925,249 +1896,296 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="7">
-        <v>1</v>
-      </c>
-      <c r="D69" s="7">
-        <v>0</v>
-      </c>
-      <c r="E69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="5">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="3">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
         <v>73</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E81" t="s">
         <v>83</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G81" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B78" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B81" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H81" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H82" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B84" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B85" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B86" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B87" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E87" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G87" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E84" s="7" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E88" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B85" s="7" t="s">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B89" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>85</v>
       </c>
     </row>

--- a/techscape-ecommerce/variable_selection.xlsx
+++ b/techscape-ecommerce/variable_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\1_semestre_DS\Machine Learning\kaggle_ml_cloned\techscape-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09BFC26-59E7-4234-845B-19784F728BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFB3D8C-F996-47C0-ABD1-3C9562E172CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8FD2E862-170C-4089-AC14-7F38B0A467A9}"/>
   </bookViews>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECF448-0E5B-4F38-8A00-76D00F3692AD}">
   <dimension ref="A7:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,14 +1009,14 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>54</v>

--- a/techscape-ecommerce/variable_selection.xlsx
+++ b/techscape-ecommerce/variable_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\1_semestre_DS\Machine Learning\kaggle_ml_cloned\techscape-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFB3D8C-F996-47C0-ABD1-3C9562E172CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6293792D-DDBE-42D5-80A0-0D71CA783096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8FD2E862-170C-4089-AC14-7F38B0A467A9}"/>
   </bookViews>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECF448-0E5B-4F38-8A00-76D00F3692AD}">
   <dimension ref="A7:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,8 +1027,11 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1065,7 @@
       </c>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1096,11 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1131,11 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1192,8 +1201,11 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1358,8 +1370,11 @@
         <v>1</v>
       </c>
       <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1381,8 +1396,11 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1405,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1432,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1458,8 +1476,11 @@
       <c r="P30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1495,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>

--- a/techscape-ecommerce/variable_selection.xlsx
+++ b/techscape-ecommerce/variable_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\1_semestre_DS\Machine Learning\kaggle_ml_cloned\techscape-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6293792D-DDBE-42D5-80A0-0D71CA783096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2951473-8746-4E10-A000-E3274043DBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8FD2E862-170C-4089-AC14-7F38B0A467A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="104">
   <si>
     <t>chi-squared</t>
   </si>
@@ -319,13 +319,40 @@
   </si>
   <si>
     <t xml:space="preserve"> 'x1_United Kingdom'</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>Traffic2_and_computer</t>
+  </si>
+  <si>
+    <t>Returning_and_computer</t>
+  </si>
+  <si>
+    <t>weekend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +364,23 @@
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Var(--notebook-cell-output-font"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -378,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -399,6 +443,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,13 +769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECF448-0E5B-4F38-8A00-76D00F3692AD}">
-  <dimension ref="A7:Q89"/>
+  <dimension ref="A7:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
@@ -732,7 +788,7 @@
     <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -773,7 +829,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17">
       <c r="H8" t="s">
         <v>18</v>
       </c>
@@ -784,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17">
       <c r="H9" t="s">
         <v>22</v>
       </c>
@@ -795,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,7 +885,7 @@
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -861,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -896,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -928,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -960,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1121,7 @@
       </c>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1100,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1387,6 +1443,15 @@
       <c r="F27">
         <v>1</v>
       </c>
+      <c r="H27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
       <c r="L27" s="1" t="s">
         <v>65</v>
       </c>
@@ -1400,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1413,6 +1478,15 @@
       <c r="F28">
         <v>0</v>
       </c>
+      <c r="H28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>66</v>
       </c>
@@ -1423,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1436,7 +1510,15 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
       <c r="L29" s="1" t="s">
         <v>67</v>
       </c>
@@ -1450,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1463,6 +1545,15 @@
       <c r="F30">
         <v>0</v>
       </c>
+      <c r="H30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
       <c r="L30" s="2" t="s">
         <v>68</v>
       </c>
@@ -1480,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1493,9 +1584,17 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H31" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
@@ -1508,8 +1607,17 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1522,8 +1630,43 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="5"/>
+      <c r="H33" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+    </row>
+    <row r="34" spans="1:35" s="3" customFormat="1">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -1536,8 +1679,43 @@
       <c r="F34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" s="5"/>
+      <c r="H34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -1550,8 +1728,43 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" s="5"/>
+      <c r="H35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -1564,8 +1777,35 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+    </row>
+    <row r="37" spans="1:35" s="3" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -1578,8 +1818,37 @@
       <c r="F37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" s="5"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -1592,8 +1861,37 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="5"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+    </row>
+    <row r="39" spans="1:35" s="3" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -1606,8 +1904,37 @@
       <c r="F39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -1620,8 +1947,37 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+    </row>
+    <row r="41" spans="1:35">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1990,37 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+    </row>
+    <row r="42" spans="1:35">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,8 +2033,37 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+    </row>
+    <row r="43" spans="1:35" s="3" customFormat="1">
       <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
@@ -1662,8 +2076,37 @@
       <c r="F43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+    </row>
+    <row r="44" spans="1:35">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -1676,8 +2119,37 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+    </row>
+    <row r="45" spans="1:35">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -1690,8 +2162,37 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+    </row>
+    <row r="46" spans="1:35">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -1704,8 +2205,37 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+    </row>
+    <row r="47" spans="1:35">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -1718,8 +2248,37 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+    </row>
+    <row r="48" spans="1:35">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
@@ -1732,8 +2291,37 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -1746,8 +2334,37 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -1760,8 +2377,37 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -1774,8 +2420,37 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
@@ -1788,8 +2463,37 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
@@ -1802,8 +2506,37 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
@@ -1816,8 +2549,37 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -1830,8 +2592,37 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -1844,8 +2635,37 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+    </row>
+    <row r="57" spans="1:35" s="3" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
@@ -1858,8 +2678,37 @@
       <c r="F57" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+    </row>
+    <row r="58" spans="1:35" s="3" customFormat="1">
       <c r="A58" s="8" t="s">
         <v>74</v>
       </c>
@@ -1869,8 +2718,37 @@
       <c r="D58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,8 +2758,37 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+    </row>
+    <row r="60" spans="1:35">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
@@ -1894,8 +2801,37 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" s="1" t="s">
         <v>51</v>
       </c>
@@ -1905,8 +2841,37 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+    </row>
+    <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
         <v>52</v>
       </c>
@@ -1916,8 +2881,37 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+    </row>
+    <row r="63" spans="1:35" s="3" customFormat="1">
       <c r="A63" s="2" t="s">
         <v>53</v>
       </c>
@@ -1930,8 +2924,37 @@
       <c r="E63" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+    </row>
+    <row r="64" spans="1:35">
       <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
@@ -1941,8 +2964,37 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+    </row>
+    <row r="65" spans="1:35" s="7" customFormat="1">
       <c r="A65" s="6" t="s">
         <v>55</v>
       </c>
@@ -1952,8 +3004,37 @@
       <c r="D65" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+    </row>
+    <row r="66" spans="1:35">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -1963,8 +3044,37 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+    </row>
+    <row r="67" spans="1:35">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
@@ -1975,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
@@ -1989,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
@@ -2000,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
@@ -2011,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
@@ -2022,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
@@ -2033,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" s="7" customFormat="1">
       <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
@@ -2047,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" s="5" customFormat="1">
       <c r="A74" s="4" t="s">
         <v>64</v>
       </c>
@@ -2058,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
@@ -2069,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35">
       <c r="A76" s="1" t="s">
         <v>66</v>
       </c>
@@ -2080,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35">
       <c r="A77" s="1" t="s">
         <v>67</v>
       </c>
@@ -2094,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" s="3" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
@@ -2108,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -2119,7 +3229,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8">
       <c r="B82" s="9" t="s">
         <v>75</v>
       </c>
@@ -2130,7 +3240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8">
       <c r="B83" s="9" t="s">
         <v>76</v>
       </c>
@@ -2141,7 +3251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8">
       <c r="B84" s="9" t="s">
         <v>77</v>
       </c>
@@ -2152,7 +3262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8">
       <c r="B85" s="9" t="s">
         <v>78</v>
       </c>
@@ -2166,7 +3276,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8">
       <c r="B86" s="9" t="s">
         <v>79</v>
       </c>
@@ -2180,7 +3290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8">
       <c r="B87" s="9" t="s">
         <v>80</v>
       </c>
@@ -2191,7 +3301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8">
       <c r="E88" s="7" t="s">
         <v>84</v>
       </c>
@@ -2199,7 +3309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8">
       <c r="B89" s="7" t="s">
         <v>84</v>
       </c>

--- a/techscape-ecommerce/variable_selection.xlsx
+++ b/techscape-ecommerce/variable_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\1_semestre_DS\Machine Learning\kaggle_ml_cloned\techscape-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2951473-8746-4E10-A000-E3274043DBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2EE51-596C-40B4-BCF0-FF95CA874A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8FD2E862-170C-4089-AC14-7F38B0A467A9}"/>
   </bookViews>
@@ -297,15 +297,9 @@
     <t>set3</t>
   </si>
   <si>
-    <t>Binary_ variables</t>
-  </si>
-  <si>
     <t>Variance Threshold</t>
   </si>
   <si>
-    <t>Chi-Squared</t>
-  </si>
-  <si>
     <t>Metric Features</t>
   </si>
   <si>
@@ -346,13 +340,19 @@
   </si>
   <si>
     <t>weekend</t>
+  </si>
+  <si>
+    <t>Chi-Squared test</t>
+  </si>
+  <si>
+    <t>Binary variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,24 +367,19 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Var(--notebook-cell-output-font"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +404,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -422,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -444,22 +445,113 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -470,6 +562,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6675549F-2C11-491B-831B-5451A01E62D3}" name="Table1" displayName="Table1" ref="H9:J37" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="H9:J37" xr:uid="{6675549F-2C11-491B-831B-5451A01E62D3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{01446CB1-4FD6-4C73-A143-F1C64E4F1810}" name="Binary variables" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{29ED8A36-B8BC-440C-AD2C-CAFBBCD397B8}" name="Chi-Squared test" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{71A41325-10BD-4471-ADF4-9B0BCB9190C2}" name="Variance Threshold" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -771,24 +875,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECF448-0E5B-4F38-8A00-76D00F3692AD}">
   <dimension ref="A7:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="18.08984375" customWidth="1"/>
     <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -804,54 +908,34 @@
       <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
       </c>
       <c r="N7" t="s">
         <v>69</v>
       </c>
       <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -864,13 +948,13 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
         <v>1</v>
       </c>
       <c r="L10" s="8" t="s">
@@ -885,7 +969,7 @@
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -898,14 +982,14 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="H11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>49</v>
@@ -917,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -930,13 +1014,13 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="H12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -952,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,14 +1049,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+      <c r="H13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>51</v>
@@ -984,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -997,13 +1081,13 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="H14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1016,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,14 +1113,14 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+      <c r="H15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>53</v>
@@ -1052,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1065,14 +1149,14 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
+      <c r="H16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>54</v>
@@ -1087,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1100,13 +1184,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="H17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
         <v>1</v>
       </c>
       <c r="L17" s="6" t="s">
@@ -1121,7 +1205,7 @@
       </c>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" ht="23" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1134,13 +1218,13 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="H18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -1156,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" ht="23" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1169,14 +1253,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+      <c r="H19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>57</v>
@@ -1191,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,14 +1288,14 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+      <c r="H20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>58</v>
@@ -1226,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1239,14 +1323,14 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+      <c r="H21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>59</v>
@@ -1261,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,14 +1358,14 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+      <c r="H22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>60</v>
@@ -1293,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1306,14 +1390,14 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+      <c r="H23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>61</v>
@@ -1325,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1338,14 +1422,14 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
+      <c r="H24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>62</v>
@@ -1357,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1370,13 +1454,13 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="H25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
         <v>0</v>
       </c>
       <c r="L25" s="6" t="s">
@@ -1393,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1406,14 +1490,14 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
+      <c r="H26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>64</v>
@@ -1430,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1443,13 +1527,13 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="J27">
+      <c r="H27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17">
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -1465,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1478,14 +1562,14 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>96</v>
+      <c r="H28" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="I28" s="10">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>66</v>
@@ -1497,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1510,14 +1594,14 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>97</v>
+      <c r="H29" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="I29" s="10">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>1</v>
+      <c r="J29" s="10">
+        <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>67</v>
@@ -1532,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1545,14 +1629,14 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>98</v>
+      <c r="H30" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="I30" s="10">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>1</v>
+      <c r="J30" s="10">
+        <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>68</v>
@@ -1571,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1584,17 +1668,17 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>99</v>
+      <c r="H31" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="I31" s="10">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
@@ -1607,17 +1691,17 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>100</v>
+      <c r="H32" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="I32" s="10">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35">
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1631,14 +1715,14 @@
         <v>0</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="11" t="s">
-        <v>101</v>
+      <c r="H33" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="I33" s="10">
         <v>1</v>
       </c>
-      <c r="J33" s="5">
-        <v>1</v>
+      <c r="J33" s="10">
+        <v>0</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -1666,7 +1750,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
     </row>
-    <row r="34" spans="1:35" s="3" customFormat="1">
+    <row r="34" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -1680,13 +1764,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="11" t="s">
-        <v>102</v>
+      <c r="H34" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
         <v>1</v>
       </c>
       <c r="K34" s="5"/>
@@ -1715,7 +1799,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -1729,14 +1813,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="11" t="s">
-        <v>103</v>
+      <c r="H35" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="I35" s="10">
         <v>1</v>
       </c>
-      <c r="J35" s="5">
-        <v>1</v>
+      <c r="J35" s="10">
+        <v>0</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -1764,7 +1848,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -1778,7 +1862,15 @@
         <v>0</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="H36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -1805,7 +1897,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
     </row>
-    <row r="37" spans="1:35" s="3" customFormat="1">
+    <row r="37" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -1819,9 +1911,15 @@
         <v>1</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="H37" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0</v>
+      </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -1848,7 +1946,7 @@
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -1862,9 +1960,6 @@
         <v>0</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -1891,7 +1986,7 @@
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
     </row>
-    <row r="39" spans="1:35" s="3" customFormat="1">
+    <row r="39" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -1905,9 +2000,6 @@
         <v>1</v>
       </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -1934,7 +2026,7 @@
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -1948,9 +2040,6 @@
         <v>0</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -1977,7 +2066,7 @@
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -1991,9 +2080,6 @@
         <v>0</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -2020,7 +2106,7 @@
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -2034,9 +2120,6 @@
         <v>1</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -2063,7 +2146,7 @@
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
     </row>
-    <row r="43" spans="1:35" s="3" customFormat="1">
+    <row r="43" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
@@ -2077,9 +2160,6 @@
         <v>1</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -2106,7 +2186,7 @@
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -2120,9 +2200,6 @@
         <v>0</v>
       </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -2149,7 +2226,7 @@
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -2163,9 +2240,6 @@
         <v>0</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -2192,7 +2266,7 @@
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -2206,9 +2280,6 @@
         <v>0</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -2235,7 +2306,7 @@
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -2249,9 +2320,6 @@
         <v>0</v>
       </c>
       <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -2278,7 +2346,7 @@
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
@@ -2292,9 +2360,6 @@
         <v>0</v>
       </c>
       <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -2321,7 +2386,7 @@
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -2335,9 +2400,6 @@
         <v>0</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -2364,7 +2426,7 @@
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -2378,9 +2440,6 @@
         <v>0</v>
       </c>
       <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -2407,7 +2466,7 @@
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -2421,9 +2480,6 @@
         <v>0</v>
       </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -2450,7 +2506,7 @@
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
@@ -2493,7 +2549,7 @@
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
@@ -2536,7 +2592,7 @@
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
@@ -2579,7 +2635,7 @@
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -2622,7 +2678,7 @@
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -2665,7 +2721,7 @@
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
     </row>
-    <row r="57" spans="1:35" s="3" customFormat="1">
+    <row r="57" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
@@ -2708,7 +2764,7 @@
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
     </row>
-    <row r="58" spans="1:35" s="3" customFormat="1">
+    <row r="58" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>74</v>
       </c>
@@ -2748,7 +2804,7 @@
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
@@ -2788,7 +2844,7 @@
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
@@ -2831,7 +2887,7 @@
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>51</v>
       </c>
@@ -2871,7 +2927,7 @@
       <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>52</v>
       </c>
@@ -2911,7 +2967,7 @@
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
     </row>
-    <row r="63" spans="1:35" s="3" customFormat="1">
+    <row r="63" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>53</v>
       </c>
@@ -2954,7 +3010,7 @@
       <c r="AH63" s="5"/>
       <c r="AI63" s="5"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
@@ -2994,7 +3050,7 @@
       <c r="AH64" s="5"/>
       <c r="AI64" s="5"/>
     </row>
-    <row r="65" spans="1:35" s="7" customFormat="1">
+    <row r="65" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>55</v>
       </c>
@@ -3034,7 +3090,7 @@
       <c r="AH65" s="5"/>
       <c r="AI65" s="5"/>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -3074,7 +3130,7 @@
       <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
@@ -3085,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
@@ -3099,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
@@ -3110,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
@@ -3132,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
@@ -3143,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" s="7" customFormat="1">
+    <row r="73" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
@@ -3157,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="5" customFormat="1">
+    <row r="74" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>64</v>
       </c>
@@ -3168,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
@@ -3179,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>66</v>
       </c>
@@ -3190,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>67</v>
       </c>
@@ -3204,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="3" customFormat="1">
+    <row r="78" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
@@ -3218,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -3229,7 +3285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="9" t="s">
         <v>75</v>
       </c>
@@ -3240,7 +3296,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="9" t="s">
         <v>76</v>
       </c>
@@ -3251,7 +3307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="9" t="s">
         <v>77</v>
       </c>
@@ -3262,7 +3318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" s="9" t="s">
         <v>78</v>
       </c>
@@ -3276,7 +3332,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="9" t="s">
         <v>79</v>
       </c>
@@ -3290,7 +3346,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" s="9" t="s">
         <v>80</v>
       </c>
@@ -3301,7 +3357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E88" s="7" t="s">
         <v>84</v>
       </c>
@@ -3309,7 +3365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" s="7" t="s">
         <v>84</v>
       </c>
@@ -3323,5 +3379,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/techscape-ecommerce/variable_selection.xlsx
+++ b/techscape-ecommerce/variable_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\1_semestre_DS\Machine Learning\kaggle_ml_cloned\techscape-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2EE51-596C-40B4-BCF0-FF95CA874A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E26DB-E363-4BC2-AFAC-F7C124CE83D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8FD2E862-170C-4089-AC14-7F38B0A467A9}"/>
   </bookViews>
@@ -475,34 +475,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Arial"/>
-        <family val="2"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <name val="Courier New"/>
+        <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -551,6 +542,34 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -565,12 +584,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6675549F-2C11-491B-831B-5451A01E62D3}" name="Table1" displayName="Table1" ref="H9:J37" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6675549F-2C11-491B-831B-5451A01E62D3}" name="Table1" displayName="Table1" ref="H9:J37" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="H9:J37" xr:uid="{6675549F-2C11-491B-831B-5451A01E62D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{01446CB1-4FD6-4C73-A143-F1C64E4F1810}" name="Binary variables" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{29ED8A36-B8BC-440C-AD2C-CAFBBCD397B8}" name="Chi-Squared test" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{71A41325-10BD-4471-ADF4-9B0BCB9190C2}" name="Variance Threshold" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{01446CB1-4FD6-4C73-A143-F1C64E4F1810}" name="Binary variables" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{29ED8A36-B8BC-440C-AD2C-CAFBBCD397B8}" name="Chi-Squared test" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{71A41325-10BD-4471-ADF4-9B0BCB9190C2}" name="Variance Threshold" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB7FA0BA-ECC5-4389-877E-D1C2B1993942}" name="Table2" displayName="Table2" ref="L9:P34" totalsRowShown="0">
+  <autoFilter ref="L9:P34" xr:uid="{FB7FA0BA-ECC5-4389-877E-D1C2B1993942}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A54CD87C-1923-41FE-858E-7741798CD4E5}" name="Metric Features" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B36DCA15-72E8-40FD-8B3E-0F2B974B924B}" name="RFE"/>
+    <tableColumn id="3" xr3:uid="{3FC0827A-EEA1-4DA9-92BC-9D2311A8063B}" name="Forward"/>
+    <tableColumn id="4" xr3:uid="{EB66F5EF-A225-4E3F-9B46-219757F5E0DF}" name="Ridge"/>
+    <tableColumn id="5" xr3:uid="{A4213012-4A65-4CCF-B034-AFC396787BA8}" name="DT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -873,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECF448-0E5B-4F38-8A00-76D00F3692AD}">
-  <dimension ref="A7:AI89"/>
+  <dimension ref="A7:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J37"/>
+    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P30" sqref="L9:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -889,10 +922,11 @@
     <col min="8" max="8" width="15.453125" customWidth="1"/>
     <col min="9" max="9" width="16.08984375" customWidth="1"/>
     <col min="10" max="10" width="18.08984375" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -908,23 +942,8 @@
       <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H9" s="10" t="s">
         <v>103</v>
       </c>
@@ -934,8 +953,23 @@
       <c r="J9" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -957,19 +991,23 @@
       <c r="J10" s="12">
         <v>1</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="3"/>
+      <c r="L10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
       <c r="N10" s="3">
         <v>1</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -991,17 +1029,23 @@
       <c r="J11" s="12">
         <v>1</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1023,20 +1067,23 @@
       <c r="J12" s="12">
         <v>1</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="L12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1058,17 +1105,23 @@
       <c r="J13" s="12">
         <v>1</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1090,17 +1143,23 @@
       <c r="J14" s="14">
         <v>1</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1122,21 +1181,23 @@
       <c r="J15" s="14">
         <v>1</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,20 +1219,23 @@
       <c r="J16" s="14">
         <v>1</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1193,19 +1257,23 @@
       <c r="J17" s="14">
         <v>1</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" ht="23" x14ac:dyDescent="0.35">
+      <c r="L17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="23" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,20 +1295,23 @@
       <c r="J18" s="14">
         <v>1</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="23" x14ac:dyDescent="0.35">
+      <c r="L18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="23" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1262,20 +1333,23 @@
       <c r="J19" s="14">
         <v>1</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1297,20 +1371,23 @@
       <c r="J20" s="14">
         <v>1</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1410,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1341,11 +1421,11 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1368,16 +1448,22 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,16 +1486,22 @@
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1434,14 +1526,20 @@
       <c r="L24" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1463,21 +1561,23 @@
       <c r="J25" s="10">
         <v>0</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1499,22 +1599,23 @@
       <c r="J26" s="10">
         <v>0</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5">
-        <v>1</v>
-      </c>
-      <c r="P26" s="5"/>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,19 +1638,22 @@
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1572,16 +1676,22 @@
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1604,19 +1714,22 @@
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1638,24 +1751,23 @@
       <c r="J30" s="10">
         <v>0</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1</v>
-      </c>
-      <c r="P30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1677,8 +1789,9 @@
       <c r="J31" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
@@ -1700,8 +1813,9 @@
       <c r="J32" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,32 +1839,15 @@
         <v>0</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="L33" s="1"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-    </row>
-    <row r="34" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -1774,32 +1871,19 @@
         <v>1</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+      <c r="L34" s="1"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -1834,21 +1918,8 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -1883,21 +1954,8 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-    </row>
-    <row r="37" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -1932,21 +1990,8 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -1972,21 +2017,8 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-    </row>
-    <row r="39" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -2012,21 +2044,8 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -2052,21 +2071,8 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -2092,21 +2098,8 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -2132,21 +2125,8 @@
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-    </row>
-    <row r="43" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
@@ -2172,21 +2152,8 @@
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -2212,21 +2179,8 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -2252,21 +2206,8 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -2292,21 +2233,8 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -2332,21 +2260,8 @@
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
@@ -2372,21 +2287,8 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -2412,21 +2314,8 @@
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -2452,21 +2341,8 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -2492,21 +2368,8 @@
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
@@ -2535,21 +2398,8 @@
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
@@ -2578,21 +2428,8 @@
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
@@ -2621,21 +2458,8 @@
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,21 +2488,8 @@
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5"/>
-      <c r="AI55" s="5"/>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -2707,21 +2518,8 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-    </row>
-    <row r="57" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
@@ -2750,21 +2548,8 @@
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-    </row>
-    <row r="58" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>74</v>
       </c>
@@ -2790,21 +2575,8 @@
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="5"/>
-      <c r="AH58" s="5"/>
-      <c r="AI58" s="5"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
@@ -2830,21 +2602,8 @@
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="5"/>
-      <c r="AH59" s="5"/>
-      <c r="AI59" s="5"/>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
@@ -2873,21 +2632,8 @@
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>51</v>
       </c>
@@ -2913,21 +2659,8 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
-      <c r="AF61" s="5"/>
-      <c r="AG61" s="5"/>
-      <c r="AH61" s="5"/>
-      <c r="AI61" s="5"/>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>52</v>
       </c>
@@ -2953,21 +2686,8 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
-      <c r="AH62" s="5"/>
-      <c r="AI62" s="5"/>
-    </row>
-    <row r="63" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>53</v>
       </c>
@@ -2996,21 +2716,8 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5"/>
-      <c r="AF63" s="5"/>
-      <c r="AG63" s="5"/>
-      <c r="AH63" s="5"/>
-      <c r="AI63" s="5"/>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
@@ -3036,21 +2743,8 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="5"/>
-      <c r="AI64" s="5"/>
-    </row>
-    <row r="65" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>55</v>
       </c>
@@ -3076,21 +2770,8 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
-      <c r="AF65" s="5"/>
-      <c r="AG65" s="5"/>
-      <c r="AH65" s="5"/>
-      <c r="AI65" s="5"/>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -3116,21 +2797,8 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
-      <c r="AH66" s="5"/>
-      <c r="AI66" s="5"/>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
@@ -3141,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
@@ -3155,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
@@ -3166,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
@@ -3177,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
@@ -3188,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
@@ -3199,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
@@ -3213,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>64</v>
       </c>
@@ -3224,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
@@ -3235,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>66</v>
       </c>
@@ -3246,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>67</v>
       </c>
@@ -3260,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
@@ -3379,8 +3047,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>